--- a/genetic_algorithm/five_parameters/log/gene100_20150120.xlsx
+++ b/genetic_algorithm/five_parameters/log/gene100_20150120.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110"/>
   </bookViews>
   <sheets>
     <sheet name="20150120T154327" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>No.1</t>
   </si>
@@ -67,6 +67,20 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>move_result最大値</t>
+    <rPh sb="11" eb="14">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>move_result合計値</t>
+    <rPh sb="11" eb="14">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -721,6 +735,2992 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'20150120T154327'!$A$3:$CV$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="207641368"/>
+        <c:axId val="207638624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="207641368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="207638624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="207638624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="207641368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('20150120T154327'!$CX$3,'20150120T154327'!$CX$24,'20150120T154327'!$CX$45,'20150120T154327'!$CX$66,'20150120T154327'!$CX$87,'20150120T154327'!$CX$108,'20150120T154327'!$CX$129,'20150120T154327'!$CX$150,'20150120T154327'!$CX$171,'20150120T154327'!$CX$192)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="420951552"/>
+        <c:axId val="420951160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="420951552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> of Generations</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420951160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="420951160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Best distance</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420951552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('20150120T154327'!$CY$3,'20150120T154327'!$CY$24,'20150120T154327'!$CY$45,'20150120T154327'!$CY$66,'20150120T154327'!$CY$87,'20150120T154327'!$CY$108,'20150120T154327'!$CY$129,'20150120T154327'!$CY$150,'20150120T154327'!$CY$171,'20150120T154327'!$CY$192)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8807</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8517</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8361</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="428766608"/>
+        <c:axId val="584921096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="428766608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> of Generations</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584921096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="584921096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Sum</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> of distance</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428766608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>291352</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>548267</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>83635</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>683201</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>169716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -984,25 +3984,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV216"/>
+  <dimension ref="A1:CY216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="CL212" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="CY192" activeCellId="9" sqref="CY3 CY24 CY45 CY66 CY87 CY108 CY129 CY150 CY171 CY192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="102" max="102" width="15.75" customWidth="1"/>
+    <col min="103" max="103" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="CX2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>-3</v>
       </c>
@@ -1255,13 +4265,21 @@
       <c r="CF3" t="s">
         <v>15</v>
       </c>
+      <c r="CX3">
+        <f>MAX(A3:CV3)</f>
+        <v>42</v>
+      </c>
+      <c r="CY3">
+        <f>SUM(A3:CV3)</f>
+        <v>-10</v>
+      </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>309</v>
       </c>
@@ -1323,7 +4341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>15</v>
       </c>
@@ -1385,7 +4403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>574</v>
       </c>
@@ -1447,7 +4465,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>16</v>
       </c>
@@ -1509,7 +4527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>582</v>
       </c>
@@ -1571,12 +4589,12 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>33</v>
       </c>
@@ -1878,7 +4896,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>13</v>
       </c>
@@ -2180,7 +5198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>572</v>
       </c>
@@ -2482,7 +5500,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2784,7 +5802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>598</v>
       </c>
@@ -3086,12 +6104,12 @@
         <v>858</v>
       </c>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>33</v>
       </c>
@@ -3393,7 +6411,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>13</v>
       </c>
@@ -3695,7 +6713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>572</v>
       </c>
@@ -3997,7 +7015,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>8</v>
       </c>
@@ -4299,7 +7317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>598</v>
       </c>
@@ -4601,17 +7619,17 @@
         <v>858</v>
       </c>
     </row>
-    <row r="22" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>71</v>
       </c>
@@ -4912,13 +7930,21 @@
       <c r="CV24">
         <v>-13</v>
       </c>
+      <c r="CX24">
+        <f>MAX(A24:CV24)</f>
+        <v>71</v>
+      </c>
+      <c r="CY24">
+        <f>SUM(A24:CV24)</f>
+        <v>1213</v>
+      </c>
     </row>
-    <row r="25" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>33</v>
       </c>
@@ -4980,7 +8006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>13</v>
       </c>
@@ -5042,7 +8068,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>572</v>
       </c>
@@ -5104,7 +8130,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>8</v>
       </c>
@@ -5166,7 +8192,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>598</v>
       </c>
@@ -5228,12 +8254,12 @@
         <v>514</v>
       </c>
     </row>
-    <row r="31" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>53</v>
       </c>
@@ -5535,7 +8561,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
@@ -5837,7 +8863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>572</v>
       </c>
@@ -6139,7 +9165,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1</v>
       </c>
@@ -6441,7 +9467,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>582</v>
       </c>
@@ -6743,12 +9769,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="37" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>53</v>
       </c>
@@ -7050,7 +10076,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="39" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>29</v>
       </c>
@@ -7352,7 +10378,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>572</v>
       </c>
@@ -7654,7 +10680,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1</v>
       </c>
@@ -7956,7 +10982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>582</v>
       </c>
@@ -8258,17 +11284,17 @@
         <v>704</v>
       </c>
     </row>
-    <row r="43" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>52</v>
       </c>
@@ -8569,13 +11595,21 @@
       <c r="CV45">
         <v>13</v>
       </c>
+      <c r="CX45">
+        <f>MAX(A45:CV45)</f>
+        <v>76</v>
+      </c>
+      <c r="CY45">
+        <f>SUM(A45:CV45)</f>
+        <v>1947</v>
+      </c>
     </row>
-    <row r="46" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>41</v>
       </c>
@@ -8637,7 +11671,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="48" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>13</v>
       </c>
@@ -8699,7 +11733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>572</v>
       </c>
@@ -8761,7 +11795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1</v>
       </c>
@@ -8823,7 +11857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>598</v>
       </c>
@@ -8885,12 +11919,12 @@
         <v>581</v>
       </c>
     </row>
-    <row r="52" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>57</v>
       </c>
@@ -9192,7 +12226,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="54" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>13</v>
       </c>
@@ -9494,7 +12528,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>572</v>
       </c>
@@ -9796,7 +12830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>0</v>
       </c>
@@ -10098,7 +13132,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>598</v>
       </c>
@@ -10400,12 +13434,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>57</v>
       </c>
@@ -10707,7 +13741,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="60" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>13</v>
       </c>
@@ -11009,7 +14043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>572</v>
       </c>
@@ -11311,7 +14345,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>0</v>
       </c>
@@ -11613,7 +14647,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>598</v>
       </c>
@@ -11915,17 +14949,17 @@
         <v>580</v>
       </c>
     </row>
-    <row r="64" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>69</v>
       </c>
@@ -12226,13 +15260,21 @@
       <c r="CV66">
         <v>35</v>
       </c>
+      <c r="CX66">
+        <f>MAX(A66:CV66)</f>
+        <v>90</v>
+      </c>
+      <c r="CY66">
+        <f>SUM(A66:CV66)</f>
+        <v>4905</v>
+      </c>
     </row>
-    <row r="67" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>45</v>
       </c>
@@ -12294,7 +15336,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>29</v>
       </c>
@@ -12356,7 +15398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>636</v>
       </c>
@@ -12418,7 +15460,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="71" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1</v>
       </c>
@@ -12480,7 +15522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>582</v>
       </c>
@@ -12542,12 +15584,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="73" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>61</v>
       </c>
@@ -12849,7 +15891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>29</v>
       </c>
@@ -13151,7 +16193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>639</v>
       </c>
@@ -13453,7 +16495,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="77" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1</v>
       </c>
@@ -13755,7 +16797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>598</v>
       </c>
@@ -14057,12 +17099,12 @@
         <v>579</v>
       </c>
     </row>
-    <row r="79" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>29</v>
       </c>
@@ -14364,7 +17406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>29</v>
       </c>
@@ -14666,7 +17708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>639</v>
       </c>
@@ -14968,7 +18010,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="83" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>1</v>
       </c>
@@ -15270,7 +18312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>598</v>
       </c>
@@ -15572,17 +18614,17 @@
         <v>579</v>
       </c>
     </row>
-    <row r="85" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>74</v>
       </c>
@@ -15883,13 +18925,21 @@
       <c r="CV87">
         <v>49</v>
       </c>
+      <c r="CX87">
+        <f>MAX(A87:CV87)</f>
+        <v>88</v>
+      </c>
+      <c r="CY87">
+        <f>SUM(A87:CV87)</f>
+        <v>6587</v>
+      </c>
     </row>
-    <row r="88" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>41</v>
       </c>
@@ -15951,7 +19001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>13</v>
       </c>
@@ -16013,7 +19063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>572</v>
       </c>
@@ -16075,7 +19125,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="92" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>0</v>
       </c>
@@ -16137,7 +19187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>606</v>
       </c>
@@ -16199,12 +19249,12 @@
         <v>582</v>
       </c>
     </row>
-    <row r="94" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>61</v>
       </c>
@@ -16506,7 +19556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>29</v>
       </c>
@@ -16808,7 +19858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>636</v>
       </c>
@@ -17110,7 +20160,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="98" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>1</v>
       </c>
@@ -17412,7 +20462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>606</v>
       </c>
@@ -17714,12 +20764,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="100" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>61</v>
       </c>
@@ -18021,7 +21071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>29</v>
       </c>
@@ -18323,7 +21373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>636</v>
       </c>
@@ -18625,7 +21675,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="104" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>1</v>
       </c>
@@ -18927,7 +21977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>606</v>
       </c>
@@ -19229,17 +22279,17 @@
         <v>598</v>
       </c>
     </row>
-    <row r="106" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>75</v>
       </c>
@@ -19540,13 +22590,21 @@
       <c r="CV108">
         <v>60</v>
       </c>
+      <c r="CX108">
+        <f>MAX(A108:CV108)</f>
+        <v>104</v>
+      </c>
+      <c r="CY108">
+        <f>SUM(A108:CV108)</f>
+        <v>7198</v>
+      </c>
     </row>
-    <row r="109" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>13</v>
       </c>
@@ -19608,7 +22666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>13</v>
       </c>
@@ -19670,7 +22728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>638</v>
       </c>
@@ -19732,7 +22790,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="113" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>1</v>
       </c>
@@ -19794,7 +22852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>582</v>
       </c>
@@ -19856,12 +22914,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="115" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>29</v>
       </c>
@@ -20163,7 +23221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>13</v>
       </c>
@@ -20465,7 +23523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>638</v>
       </c>
@@ -20767,7 +23825,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="119" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>17</v>
       </c>
@@ -21069,7 +24127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>596</v>
       </c>
@@ -21371,12 +24429,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="121" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>29</v>
       </c>
@@ -21678,7 +24736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>13</v>
       </c>
@@ -21980,7 +25038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>638</v>
       </c>
@@ -22282,7 +25340,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="125" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>17</v>
       </c>
@@ -22584,7 +25642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>596</v>
       </c>
@@ -22886,17 +25944,17 @@
         <v>598</v>
       </c>
     </row>
-    <row r="127" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>100</v>
       </c>
@@ -23197,13 +26255,21 @@
       <c r="CV129">
         <v>93</v>
       </c>
+      <c r="CX129">
+        <f>MAX(A129:CV129)</f>
+        <v>115</v>
+      </c>
+      <c r="CY129">
+        <f>SUM(A129:CV129)</f>
+        <v>8807</v>
+      </c>
     </row>
-    <row r="130" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>9</v>
       </c>
@@ -23265,7 +26331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>13</v>
       </c>
@@ -23327,7 +26393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>638</v>
       </c>
@@ -23389,7 +26455,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="134" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>1</v>
       </c>
@@ -23451,7 +26517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>590</v>
       </c>
@@ -23513,12 +26579,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="136" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>29</v>
       </c>
@@ -23820,7 +26886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>13</v>
       </c>
@@ -24122,7 +27188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>638</v>
       </c>
@@ -24424,7 +27490,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="140" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>1</v>
       </c>
@@ -24726,7 +27792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>582</v>
       </c>
@@ -25028,12 +28094,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="142" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>29</v>
       </c>
@@ -25335,7 +28401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>13</v>
       </c>
@@ -25637,7 +28703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>638</v>
       </c>
@@ -25939,7 +29005,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="146" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>1</v>
       </c>
@@ -26241,7 +29307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>582</v>
       </c>
@@ -26543,17 +29609,17 @@
         <v>598</v>
       </c>
     </row>
-    <row r="148" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>95</v>
       </c>
@@ -26854,13 +29920,21 @@
       <c r="CV150">
         <v>96</v>
       </c>
+      <c r="CX150">
+        <f>MAX(A150:CV150)</f>
+        <v>106</v>
+      </c>
+      <c r="CY150">
+        <f>SUM(A150:CV150)</f>
+        <v>8517</v>
+      </c>
     </row>
-    <row r="151" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>9</v>
       </c>
@@ -26922,7 +29996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>13</v>
       </c>
@@ -26984,7 +30058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>636</v>
       </c>
@@ -27046,7 +30120,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="155" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>17</v>
       </c>
@@ -27108,7 +30182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>606</v>
       </c>
@@ -27170,12 +30244,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="157" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>9</v>
       </c>
@@ -27477,7 +30551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>13</v>
       </c>
@@ -27779,7 +30853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>636</v>
       </c>
@@ -28081,7 +31155,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="161" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>1</v>
       </c>
@@ -28383,7 +31457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>598</v>
       </c>
@@ -28685,12 +31759,12 @@
         <v>582</v>
       </c>
     </row>
-    <row r="163" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>9</v>
       </c>
@@ -28992,7 +32066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>13</v>
       </c>
@@ -29294,7 +32368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>636</v>
       </c>
@@ -29596,7 +32670,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="167" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>33</v>
       </c>
@@ -29898,7 +32972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>598</v>
       </c>
@@ -30200,17 +33274,17 @@
         <v>582</v>
       </c>
     </row>
-    <row r="169" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>59</v>
       </c>
@@ -30511,13 +33585,21 @@
       <c r="CV171">
         <v>82</v>
       </c>
+      <c r="CX171">
+        <f>MAX(A171:CV171)</f>
+        <v>103</v>
+      </c>
+      <c r="CY171">
+        <f>SUM(A171:CV171)</f>
+        <v>8361</v>
+      </c>
     </row>
-    <row r="172" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>13</v>
       </c>
@@ -30579,7 +33661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>15</v>
       </c>
@@ -30641,7 +33723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>638</v>
       </c>
@@ -30703,7 +33785,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="176" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>17</v>
       </c>
@@ -30765,7 +33847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>606</v>
       </c>
@@ -30827,12 +33909,12 @@
         <v>582</v>
       </c>
     </row>
-    <row r="178" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>9</v>
       </c>
@@ -31134,7 +34216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>9</v>
       </c>
@@ -31436,7 +34518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>638</v>
       </c>
@@ -31738,7 +34820,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="182" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>17</v>
       </c>
@@ -32040,7 +35122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>606</v>
       </c>
@@ -32342,12 +35424,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="184" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>9</v>
       </c>
@@ -32649,7 +35731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>9</v>
       </c>
@@ -32951,7 +36033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>638</v>
       </c>
@@ -33253,7 +36335,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="188" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>17</v>
       </c>
@@ -33555,7 +36637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>606</v>
       </c>
@@ -33857,17 +36939,17 @@
         <v>598</v>
       </c>
     </row>
-    <row r="190" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:103" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>91</v>
       </c>
@@ -34168,13 +37250,21 @@
       <c r="CV192">
         <v>63</v>
       </c>
+      <c r="CX192">
+        <f>MAX(A192:CV192)</f>
+        <v>97</v>
+      </c>
+      <c r="CY192">
+        <f>SUM(A192:CV192)</f>
+        <v>7953</v>
+      </c>
     </row>
-    <row r="193" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>13</v>
       </c>
@@ -34236,7 +37326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>15</v>
       </c>
@@ -34298,7 +37388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>638</v>
       </c>
@@ -34360,7 +37450,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="197" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>1</v>
       </c>
@@ -34422,7 +37512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>598</v>
       </c>
@@ -34484,12 +37574,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="199" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>9</v>
       </c>
@@ -34791,7 +37881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>15</v>
       </c>
@@ -35093,7 +38183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>638</v>
       </c>
@@ -35395,7 +38485,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="203" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>1</v>
       </c>
@@ -35697,7 +38787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>598</v>
       </c>
@@ -35999,12 +39089,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="205" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>9</v>
       </c>
@@ -36306,7 +39396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>15</v>
       </c>
@@ -36608,7 +39698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>638</v>
       </c>
@@ -36910,7 +40000,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="209" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>1</v>
       </c>
@@ -37212,7 +40302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>598</v>
       </c>
@@ -37514,12 +40604,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="211" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>13</v>
       </c>
@@ -37581,7 +40671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>9</v>
       </c>
@@ -37643,7 +40733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>638</v>
       </c>
@@ -37705,7 +40795,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="215" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>17</v>
       </c>
@@ -37767,7 +40857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>606</v>
       </c>
@@ -37832,5 +40922,7 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/genetic_algorithm/five_parameters/log/gene100_20150120.xlsx
+++ b/genetic_algorithm/five_parameters/log/gene100_20150120.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>No.1</t>
   </si>
@@ -79,6 +79,37 @@
     <t>move_result合計値</t>
     <rPh sb="11" eb="14">
       <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>move_result最小値</t>
+    <rPh sb="11" eb="14">
+      <t>サイショウチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>move_result分散値</t>
+    <rPh sb="11" eb="14">
+      <t>ブンサンチ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>move_result標準偏差</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>move_result平均値</t>
+    <rPh sb="11" eb="14">
+      <t>ヘイキンチ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -749,498 +780,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'20150120T154327'!$A$3:$CV$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-36</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-23</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-24</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-23</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-32</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-17</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-36</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-15</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-18</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-19</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-16</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-24</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-22</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-14</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-35</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-17</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-15</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="207641368"/>
-        <c:axId val="207638624"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="207641368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="207638624"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="207638624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="207641368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -1325,11 +864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420951552"/>
-        <c:axId val="420951160"/>
+        <c:axId val="127202200"/>
+        <c:axId val="206545008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="420951552"/>
+        <c:axId val="127202200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +971,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420951160"/>
+        <c:crossAx val="206545008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1440,7 +979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="420951160"/>
+        <c:axId val="206545008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1020,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>Best distance</a:t>
+                  <a:t>distance</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
@@ -1548,7 +1087,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420951552"/>
+        <c:crossAx val="127202200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1597,7 +1136,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1695,11 +1234,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428766608"/>
-        <c:axId val="584921096"/>
+        <c:axId val="362788000"/>
+        <c:axId val="362889840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="428766608"/>
+        <c:axId val="362788000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,7 +1341,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584921096"/>
+        <c:crossAx val="362889840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1810,7 +1349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="584921096"/>
+        <c:axId val="362889840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,12 +1389,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>Sum</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-                  <a:t> of distance</a:t>
+                  <a:t>distance</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
@@ -1922,7 +1457,843 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428766608"/>
+        <c:crossAx val="362788000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('20150120T154327'!$CZ$3,'20150120T154327'!$CZ$24,'20150120T154327'!$CZ$45,'20150120T154327'!$CZ$66,'20150120T154327'!$CZ$87,'20150120T154327'!$CZ$108,'20150120T154327'!$CZ$129,'20150120T154327'!$CZ$150,'20150120T154327'!$CZ$171,'20150120T154327'!$CZ$192)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="365305144"/>
+        <c:axId val="365313376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="365305144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> of Generations</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365313376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365313376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>distance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365305144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'20150120T154327'!$DF$3:$DF$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>17.716877440000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>19.794731980000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>22.985043449999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24.147013950000002</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.6217923949999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>13.993490550000001</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.94030184</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>10.96556133</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.7865037969999999</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10.452823970000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'20150120T154327'!$DF$3:$DF$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>17.716877440000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>19.794731980000002</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>22.985043449999999</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24.147013950000002</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.6217923949999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>13.993490550000001</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.94030184</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>10.96556133</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.7865037969999999</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10.452823970000001</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>('20150120T154327'!$DC$3,'20150120T154327'!$DC$24,'20150120T154327'!$DC$45,'20150120T154327'!$DC$66,'20150120T154327'!$DC$87,'20150120T154327'!$DC$108,'20150120T154327'!$DC$129,'20150120T154327'!$DC$150,'20150120T154327'!$DC$171,'20150120T154327'!$DC$192)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.12048192771084337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="460434104"/>
+        <c:axId val="460434496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="460434104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> of Generations</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460434496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="460434496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>distance</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460434104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2091,7 +2462,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2607,7 +3521,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3110,8 +4024,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3219,11 +4133,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3234,11 +4143,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3270,9 +4174,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3630,36 +4531,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>84</xdr:col>
       <xdr:colOff>291352</xdr:colOff>
       <xdr:row>212</xdr:row>
@@ -3682,7 +4553,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3712,7 +4583,67 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>541804</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>412936</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>6162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3984,24 +4915,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY216"/>
+  <dimension ref="A1:DF216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CL212" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="CY192" activeCellId="9" sqref="CY3 CY24 CY45 CY66 CY87 CY108 CY129 CY150 CY171 CY192"/>
+    <sheetView tabSelected="1" topLeftCell="CS198" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DQ212" sqref="DP212:DQ212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="102" max="102" width="15.75" customWidth="1"/>
     <col min="103" max="103" width="15" customWidth="1"/>
+    <col min="104" max="104" width="15.25" customWidth="1"/>
+    <col min="105" max="105" width="17.125" customWidth="1"/>
+    <col min="106" max="106" width="15" customWidth="1"/>
+    <col min="107" max="107" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4011,8 +4946,20 @@
       <c r="CY2" t="s">
         <v>17</v>
       </c>
+      <c r="CZ2" t="s">
+        <v>18</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>20</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>19</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>-3</v>
       </c>
@@ -4273,13 +5220,35 @@
         <f>SUM(A3:CV3)</f>
         <v>-10</v>
       </c>
+      <c r="CZ3">
+        <f>MIN(A3:CV3)</f>
+        <v>-44</v>
+      </c>
+      <c r="DA3">
+        <f>STDEV(A3:CV3)</f>
+        <v>17.716877436681013</v>
+      </c>
+      <c r="DB3">
+        <f>VAR(A3:CV3)</f>
+        <v>313.88774610637677</v>
+      </c>
+      <c r="DC3">
+        <f>AVERAGE(A3:CV3)</f>
+        <v>-0.12048192771084337</v>
+      </c>
+      <c r="DF3">
+        <v>17.716877440000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="DF4">
+        <v>19.794731980000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>309</v>
       </c>
@@ -4340,8 +5309,11 @@
       <c r="T5">
         <v>36</v>
       </c>
+      <c r="DF5">
+        <v>22.985043449999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>15</v>
       </c>
@@ -4402,8 +5374,11 @@
       <c r="T6">
         <v>28</v>
       </c>
+      <c r="DF6">
+        <v>24.147013950000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>574</v>
       </c>
@@ -4464,8 +5439,11 @@
       <c r="T7">
         <v>68</v>
       </c>
+      <c r="DF7">
+        <v>9.6217923949999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>16</v>
       </c>
@@ -4526,8 +5504,11 @@
       <c r="T8">
         <v>78</v>
       </c>
+      <c r="DF8">
+        <v>13.993490550000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>582</v>
       </c>
@@ -4588,13 +5569,19 @@
       <c r="T9">
         <v>635</v>
       </c>
+      <c r="DF9">
+        <v>11.94030184</v>
+      </c>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>3</v>
       </c>
+      <c r="DF10">
+        <v>10.96556133</v>
+      </c>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>33</v>
       </c>
@@ -4895,8 +5882,11 @@
       <c r="CV11">
         <v>264</v>
       </c>
+      <c r="DF11">
+        <v>9.7865037969999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>13</v>
       </c>
@@ -5197,8 +6187,11 @@
       <c r="CV12">
         <v>29</v>
       </c>
+      <c r="DF12">
+        <v>10.452823970000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>572</v>
       </c>
@@ -5500,7 +6493,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>8</v>
       </c>
@@ -5802,7 +6795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>598</v>
       </c>
@@ -6104,12 +7097,12 @@
         <v>858</v>
       </c>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:110" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>33</v>
       </c>
@@ -6411,7 +7404,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>13</v>
       </c>
@@ -6713,7 +7706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>572</v>
       </c>
@@ -7015,7 +8008,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>8</v>
       </c>
@@ -7317,7 +8310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>598</v>
       </c>
@@ -7619,17 +8612,17 @@
         <v>858</v>
       </c>
     </row>
-    <row r="22" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>71</v>
       </c>
@@ -7938,13 +8931,29 @@
         <f>SUM(A24:CV24)</f>
         <v>1213</v>
       </c>
+      <c r="CZ24">
+        <f>MIN(A24:CV24)</f>
+        <v>-43</v>
+      </c>
+      <c r="DA24">
+        <f>STDEV(A24:CV24)</f>
+        <v>19.794731979529658</v>
+      </c>
+      <c r="DB24">
+        <f>VAR(A24:CV24)</f>
+        <v>391.83141414141414</v>
+      </c>
+      <c r="DC24">
+        <f>AVERAGE(A24:CV24)</f>
+        <v>12.13</v>
+      </c>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>33</v>
       </c>
@@ -8006,7 +9015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>13</v>
       </c>
@@ -8068,7 +9077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>572</v>
       </c>
@@ -8130,7 +9139,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>8</v>
       </c>
@@ -8192,7 +9201,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>598</v>
       </c>
@@ -8254,12 +9263,12 @@
         <v>514</v>
       </c>
     </row>
-    <row r="31" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>53</v>
       </c>
@@ -8561,7 +9570,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
@@ -8863,7 +9872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>572</v>
       </c>
@@ -9165,7 +10174,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1</v>
       </c>
@@ -9467,7 +10476,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>582</v>
       </c>
@@ -9769,12 +10778,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>53</v>
       </c>
@@ -10076,7 +11085,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="39" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>29</v>
       </c>
@@ -10378,7 +11387,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>572</v>
       </c>
@@ -10680,7 +11689,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1</v>
       </c>
@@ -10982,7 +11991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>582</v>
       </c>
@@ -11284,17 +12293,17 @@
         <v>704</v>
       </c>
     </row>
-    <row r="43" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>52</v>
       </c>
@@ -11603,13 +12612,29 @@
         <f>SUM(A45:CV45)</f>
         <v>1947</v>
       </c>
+      <c r="CZ45">
+        <f>MIN(A45:CV45)</f>
+        <v>-40</v>
+      </c>
+      <c r="DA45">
+        <f>STDEV(A45:CV45)</f>
+        <v>22.985043446167818</v>
+      </c>
+      <c r="DB45">
+        <f>VAR(A45:CV45)</f>
+        <v>528.3122222222222</v>
+      </c>
+      <c r="DC45">
+        <f>AVERAGE(A45:CV45)</f>
+        <v>19.47</v>
+      </c>
     </row>
-    <row r="46" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>41</v>
       </c>
@@ -11671,7 +12696,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="48" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>13</v>
       </c>
@@ -14954,12 +15979,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>69</v>
       </c>
@@ -15268,13 +16293,29 @@
         <f>SUM(A66:CV66)</f>
         <v>4905</v>
       </c>
+      <c r="CZ66">
+        <f>MIN(A66:CV66)</f>
+        <v>-30</v>
+      </c>
+      <c r="DA66">
+        <f>STDEV(A66:CV66)</f>
+        <v>24.14701395262534</v>
+      </c>
+      <c r="DB66">
+        <f>VAR(A66:CV66)</f>
+        <v>583.07828282828279</v>
+      </c>
+      <c r="DC66">
+        <f>AVERAGE(A66:CV66)</f>
+        <v>49.05</v>
+      </c>
     </row>
-    <row r="67" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>45</v>
       </c>
@@ -15336,7 +16377,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>29</v>
       </c>
@@ -15398,7 +16439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>636</v>
       </c>
@@ -15460,7 +16501,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="71" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1</v>
       </c>
@@ -15522,7 +16563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>582</v>
       </c>
@@ -15584,12 +16625,12 @@
         <v>583</v>
       </c>
     </row>
-    <row r="73" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>61</v>
       </c>
@@ -15891,7 +16932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>29</v>
       </c>
@@ -16193,7 +17234,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>639</v>
       </c>
@@ -16495,7 +17536,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="77" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1</v>
       </c>
@@ -16797,7 +17838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>598</v>
       </c>
@@ -17099,12 +18140,12 @@
         <v>579</v>
       </c>
     </row>
-    <row r="79" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>29</v>
       </c>
@@ -17406,7 +18447,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>29</v>
       </c>
@@ -17708,7 +18749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>639</v>
       </c>
@@ -18010,7 +19051,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="83" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>1</v>
       </c>
@@ -18312,7 +19353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>598</v>
       </c>
@@ -18614,17 +19655,17 @@
         <v>579</v>
       </c>
     </row>
-    <row r="85" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>74</v>
       </c>
@@ -18933,13 +19974,29 @@
         <f>SUM(A87:CV87)</f>
         <v>6587</v>
       </c>
+      <c r="CZ87">
+        <f>MIN(A87:CV87)</f>
+        <v>35</v>
+      </c>
+      <c r="DA87">
+        <f>STDEV(A87:CV87)</f>
+        <v>9.6217923948133937</v>
+      </c>
+      <c r="DB87">
+        <f>VAR(A87:CV87)</f>
+        <v>92.578888888888869</v>
+      </c>
+      <c r="DC87">
+        <f>AVERAGE(A87:CV87)</f>
+        <v>65.87</v>
+      </c>
     </row>
-    <row r="88" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>41</v>
       </c>
@@ -19001,7 +20058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>13</v>
       </c>
@@ -19063,7 +20120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>572</v>
       </c>
@@ -19125,7 +20182,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="92" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>0</v>
       </c>
@@ -19187,7 +20244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>606</v>
       </c>
@@ -19249,12 +20306,12 @@
         <v>582</v>
       </c>
     </row>
-    <row r="94" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>61</v>
       </c>
@@ -19556,7 +20613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>29</v>
       </c>
@@ -19858,7 +20915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>636</v>
       </c>
@@ -20160,7 +21217,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="98" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>1</v>
       </c>
@@ -20462,7 +21519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>606</v>
       </c>
@@ -20764,12 +21821,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="100" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>61</v>
       </c>
@@ -21071,7 +22128,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>29</v>
       </c>
@@ -21373,7 +22430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>636</v>
       </c>
@@ -21675,7 +22732,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="104" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>1</v>
       </c>
@@ -21977,7 +23034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>606</v>
       </c>
@@ -22279,17 +23336,17 @@
         <v>598</v>
       </c>
     </row>
-    <row r="106" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>75</v>
       </c>
@@ -22598,13 +23655,29 @@
         <f>SUM(A108:CV108)</f>
         <v>7198</v>
       </c>
+      <c r="CZ108">
+        <f>MIN(A108:CV108)</f>
+        <v>34</v>
+      </c>
+      <c r="DA108">
+        <f>STDEV(A108:CV108)</f>
+        <v>13.99349055017289</v>
+      </c>
+      <c r="DB108">
+        <f>VAR(A108:CV108)</f>
+        <v>195.81777777777799</v>
+      </c>
+      <c r="DC108">
+        <f>AVERAGE(A108:CV108)</f>
+        <v>71.98</v>
+      </c>
     </row>
-    <row r="109" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>13</v>
       </c>
@@ -22666,7 +23739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>13</v>
       </c>
@@ -22728,7 +23801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>638</v>
       </c>
@@ -25954,7 +27027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>100</v>
       </c>
@@ -26263,13 +27336,29 @@
         <f>SUM(A129:CV129)</f>
         <v>8807</v>
       </c>
+      <c r="CZ129">
+        <f>MIN(A129:CV129)</f>
+        <v>43</v>
+      </c>
+      <c r="DA129">
+        <f>STDEV(A129:CV129)</f>
+        <v>11.940301842114721</v>
+      </c>
+      <c r="DB129">
+        <f>VAR(A129:CV129)</f>
+        <v>142.57080808080818</v>
+      </c>
+      <c r="DC129">
+        <f>AVERAGE(A129:CV129)</f>
+        <v>88.07</v>
+      </c>
     </row>
-    <row r="130" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>9</v>
       </c>
@@ -26331,7 +27420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>13</v>
       </c>
@@ -26393,7 +27482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>638</v>
       </c>
@@ -26455,7 +27544,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="134" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>1</v>
       </c>
@@ -26517,7 +27606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>590</v>
       </c>
@@ -26579,12 +27668,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="136" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>29</v>
       </c>
@@ -26886,7 +27975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>13</v>
       </c>
@@ -27188,7 +28277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>638</v>
       </c>
@@ -27490,7 +28579,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="140" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>1</v>
       </c>
@@ -27792,7 +28881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>582</v>
       </c>
@@ -28094,12 +29183,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="142" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>29</v>
       </c>
@@ -28401,7 +29490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>13</v>
       </c>
@@ -28703,7 +29792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>638</v>
       </c>
@@ -29005,7 +30094,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="146" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>1</v>
       </c>
@@ -29307,7 +30396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>582</v>
       </c>
@@ -29609,17 +30698,17 @@
         <v>598</v>
       </c>
     </row>
-    <row r="148" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>95</v>
       </c>
@@ -29928,13 +31017,29 @@
         <f>SUM(A150:CV150)</f>
         <v>8517</v>
       </c>
+      <c r="CZ150">
+        <f>MIN(A150:CV150)</f>
+        <v>25</v>
+      </c>
+      <c r="DA150">
+        <f>STDEV(A150:CV150)</f>
+        <v>10.965561333262206</v>
+      </c>
+      <c r="DB150">
+        <f>VAR(A150:CV150)</f>
+        <v>120.24353535353521</v>
+      </c>
+      <c r="DC150">
+        <f>AVERAGE(A150:CV150)</f>
+        <v>85.17</v>
+      </c>
     </row>
-    <row r="151" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>9</v>
       </c>
@@ -29996,7 +31101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>13</v>
       </c>
@@ -30058,7 +31163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>636</v>
       </c>
@@ -30120,7 +31225,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="155" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>17</v>
       </c>
@@ -30182,7 +31287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>606</v>
       </c>
@@ -30244,12 +31349,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="157" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>9</v>
       </c>
@@ -30551,7 +31656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>13</v>
       </c>
@@ -30853,7 +31958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>636</v>
       </c>
@@ -31155,7 +32260,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="161" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>1</v>
       </c>
@@ -31457,7 +32562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>598</v>
       </c>
@@ -31759,12 +32864,12 @@
         <v>582</v>
       </c>
     </row>
-    <row r="163" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>9</v>
       </c>
@@ -32066,7 +33171,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>13</v>
       </c>
@@ -32368,7 +33473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>636</v>
       </c>
@@ -32670,7 +33775,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="167" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>33</v>
       </c>
@@ -32972,7 +34077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>598</v>
       </c>
@@ -33274,17 +34379,17 @@
         <v>582</v>
       </c>
     </row>
-    <row r="169" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>59</v>
       </c>
@@ -33593,13 +34698,29 @@
         <f>SUM(A171:CV171)</f>
         <v>8361</v>
       </c>
+      <c r="CZ171">
+        <f>MIN(A171:CV171)</f>
+        <v>31</v>
+      </c>
+      <c r="DA171">
+        <f>STDEV(A171:CV171)</f>
+        <v>9.7865037968447623</v>
+      </c>
+      <c r="DB171">
+        <f>VAR(A171:CV171)</f>
+        <v>95.775656565656945</v>
+      </c>
+      <c r="DC171">
+        <f>AVERAGE(A171:CV171)</f>
+        <v>83.61</v>
+      </c>
     </row>
-    <row r="172" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>13</v>
       </c>
@@ -33661,7 +34782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>15</v>
       </c>
@@ -33723,7 +34844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>638</v>
       </c>
@@ -33785,7 +34906,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="176" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>17</v>
       </c>
@@ -33847,7 +34968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>606</v>
       </c>
@@ -33909,12 +35030,12 @@
         <v>582</v>
       </c>
     </row>
-    <row r="178" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>9</v>
       </c>
@@ -34216,7 +35337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>9</v>
       </c>
@@ -34518,7 +35639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>638</v>
       </c>
@@ -34820,7 +35941,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="182" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>17</v>
       </c>
@@ -35122,7 +36243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>606</v>
       </c>
@@ -35424,12 +36545,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="184" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>9</v>
       </c>
@@ -35731,7 +36852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>9</v>
       </c>
@@ -36033,7 +37154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>638</v>
       </c>
@@ -36335,7 +37456,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="188" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>17</v>
       </c>
@@ -36637,7 +37758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>606</v>
       </c>
@@ -36939,17 +38060,17 @@
         <v>598</v>
       </c>
     </row>
-    <row r="190" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:103" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:107" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>91</v>
       </c>
@@ -37257,6 +38378,22 @@
       <c r="CY192">
         <f>SUM(A192:CV192)</f>
         <v>7953</v>
+      </c>
+      <c r="CZ192">
+        <f>MIN(A192:CV192)</f>
+        <v>29</v>
+      </c>
+      <c r="DA192">
+        <f>STDEV(A192:CV192)</f>
+        <v>10.452832973491804</v>
+      </c>
+      <c r="DB192">
+        <f>VAR(A192:CV192)</f>
+        <v>109.26171717171751</v>
+      </c>
+      <c r="DC192">
+        <f>AVERAGE(A192:CV192)</f>
+        <v>79.53</v>
       </c>
     </row>
     <row r="193" spans="1:100" x14ac:dyDescent="0.15">
